--- a/Excel Policies/SARSA Policy.xlsx
+++ b/Excel Policies/SARSA Policy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Documents/CU Boulder Classes/DMU/FINAL PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Documents/GitHub/blackjackAI/Excel Policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBE5F6-F4B9-FA4F-BC71-8CE1146CD269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C886354-F4B0-3D44-BF94-F58F88026E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11180" yWindow="1460" windowWidth="14340" windowHeight="14000" xr2:uid="{68A7BB8D-7DC8-BC4B-A18B-CCE0249F3626}"/>
   </bookViews>
@@ -180,11 +180,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36030BC7-10D2-394F-945E-6E97264BDAFA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,18 +555,18 @@
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -603,7 +603,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -641,7 +641,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2">
         <v>20</v>
       </c>
@@ -677,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2">
         <v>19</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2">
         <v>18</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2">
         <v>17</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2">
         <v>16</v>
       </c>
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2">
         <v>15</v>
       </c>
@@ -847,25 +847,25 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
@@ -893,7 +893,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2">
         <v>13</v>
       </c>
@@ -901,13 +901,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -943,13 +943,13 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>11</v>
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1073,12 +1073,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2">
         <v>6</v>
       </c>
@@ -1165,13 +1165,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>11</v>
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2">
         <v>5</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>11</v>
@@ -1210,14 +1210,14 @@
         <v>11</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>4</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>11</v>
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
@@ -1372,13 +1372,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>11</v>
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>11</v>
@@ -1505,7 +1505,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>11</v>
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
